--- a/docs/Contracts/2024 Contract NC Fiberglass.xlsx
+++ b/docs/Contracts/2024 Contract NC Fiberglass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0658a056af53f539/Job Aids/Contracts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Submerge\docs\Contracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{AFB39FCB-61A4-4CE8-8B37-D253C6C2E031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01FE14B-5146-40F7-8FA1-FFFDB6152975}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C81E36C-9AB5-4673-B74B-F919FFDEB893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4815" windowWidth="16440" windowHeight="28320" xr2:uid="{C8925376-2B03-47D1-8337-7170FEBA89A7}"/>
+    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" xr2:uid="{C8925376-2B03-47D1-8337-7170FEBA89A7}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTRACT" sheetId="1" r:id="rId1"/>
@@ -42154,37 +42154,37 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:AK312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E73" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:H83"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47:J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="7" width="5.85546875" customWidth="1"/>
+    <col min="1" max="7" width="5.88671875" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" customWidth="1"/>
-    <col min="12" max="18" width="5.85546875" customWidth="1"/>
+    <col min="9" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="2.5546875" customWidth="1"/>
+    <col min="12" max="18" width="5.88671875" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" customWidth="1"/>
-    <col min="25" max="25" width="5.5703125" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" customWidth="1"/>
-    <col min="35" max="36" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" customWidth="1"/>
+    <col min="24" max="24" width="8.5546875" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" customWidth="1"/>
+    <col min="29" max="29" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" customWidth="1"/>
+    <col min="35" max="36" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25">
+    <row r="1" spans="1:26" ht="22.8">
       <c r="A1" s="98" t="s">
         <v>161</v>
       </c>
@@ -42209,7 +42209,7 @@
       <c r="T1" s="99"/>
       <c r="U1" s="99"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1">
       <c r="F2" s="130" t="str">
         <f>IF(A1=W3,"North Carolina Construction Contract - Home Improvement - Fiberglass Swimming Pool","North Carolina Construction Contract - Home Improvement - Shotcrete Swimming Pool")</f>
         <v>North Carolina Construction Contract - Home Improvement - Fiberglass Swimming Pool</v>
@@ -42266,7 +42266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.95" customHeight="1">
+    <row r="4" spans="1:26" ht="15.9" customHeight="1">
       <c r="F4" s="122" t="s">
         <v>166</v>
       </c>
@@ -42295,7 +42295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.95" customHeight="1">
+    <row r="5" spans="1:26" ht="15.9" customHeight="1">
       <c r="F5" s="122" t="s">
         <v>168</v>
       </c>
@@ -42315,11 +42315,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="6.95" customHeight="1">
+    <row r="6" spans="1:26" ht="6.9" customHeight="1">
       <c r="F6" s="19"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:26" ht="15.95" customHeight="1">
+    <row r="7" spans="1:26" ht="15.9" customHeight="1">
       <c r="F7" s="122" t="s">
         <v>164</v>
       </c>
@@ -42341,7 +42341,7 @@
       <c r="T7" s="137"/>
       <c r="U7" s="139"/>
     </row>
-    <row r="8" spans="1:26" ht="5.45" customHeight="1" thickBot="1">
+    <row r="8" spans="1:26" ht="5.4" customHeight="1" thickBot="1">
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -42562,9 +42562,7 @@
         <v>180</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="I20" s="128">
-        <v>45556</v>
-      </c>
+      <c r="I20" s="128"/>
       <c r="J20" s="128"/>
       <c r="K20" s="128"/>
       <c r="L20" s="128"/>
@@ -42580,9 +42578,7 @@
         <v>181</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="I21" s="128">
-        <v>45647</v>
-      </c>
+      <c r="I21" s="128"/>
       <c r="J21" s="128"/>
       <c r="K21" s="128"/>
       <c r="L21" s="128"/>
@@ -42654,7 +42650,7 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="1:37" ht="75.95" customHeight="1">
+    <row r="25" spans="1:37" ht="75.900000000000006" customHeight="1">
       <c r="A25" s="85" t="s">
         <v>190</v>
       </c>
@@ -42679,7 +42675,7 @@
       <c r="T25" s="85"/>
       <c r="U25" s="85"/>
     </row>
-    <row r="26" spans="1:37" ht="12.95" customHeight="1">
+    <row r="26" spans="1:37" ht="12.9" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -42753,7 +42749,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.45" customHeight="1">
+    <row r="28" spans="1:37" ht="14.4" customHeight="1">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -42805,7 +42801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.45" customHeight="1">
+    <row r="29" spans="1:37" ht="14.4" customHeight="1">
       <c r="A29" t="str">
         <f>IF($A$1=$W$3,W28,AE28)</f>
         <v>30% - Completion of Permit Approval</v>
@@ -42848,7 +42844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.45" customHeight="1">
+    <row r="30" spans="1:37" ht="14.4" customHeight="1">
       <c r="A30" t="str">
         <f>IF($A$1=$W$3,W29,AE29)</f>
         <v>30% - Completion of  Shell Install</v>
@@ -42898,7 +42894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.45" customHeight="1">
+    <row r="31" spans="1:37" ht="14.4" customHeight="1">
       <c r="A31" t="str">
         <f>IF($A$1=$W$3,W30,AE30)</f>
         <v>30% - Completion of Coping &amp; Decking</v>
@@ -42937,7 +42933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.45" customHeight="1">
+    <row r="32" spans="1:37" ht="14.4" customHeight="1">
       <c r="A32" t="str">
         <f>IF($A$1=$W$3,W31,AE31)</f>
         <v>10% - Prior to Start Up</v>
@@ -42971,7 +42967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="14.45" customHeight="1" thickBot="1">
+    <row r="33" spans="1:37" ht="14.4" customHeight="1" thickBot="1">
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -43015,7 +43011,7 @@
       <c r="T34" s="111"/>
       <c r="U34" s="112"/>
     </row>
-    <row r="35" spans="1:37" ht="13.5" thickBot="1">
+    <row r="35" spans="1:37" ht="13.8" thickBot="1">
       <c r="A35" s="19"/>
       <c r="B35" t="s">
         <v>191</v>
@@ -43088,7 +43084,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:37" ht="14.45" customHeight="1">
+    <row r="38" spans="1:37" ht="14.4" customHeight="1">
       <c r="A38" s="107" t="s">
         <v>102</v>
       </c>
@@ -43140,7 +43136,7 @@
       <c r="AJ38" s="92"/>
       <c r="AK38" s="93"/>
     </row>
-    <row r="39" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="39" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>101</v>
       </c>
@@ -43183,7 +43179,7 @@
       <c r="AJ39" s="38"/>
       <c r="AK39" s="39"/>
     </row>
-    <row r="40" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="40" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>99</v>
       </c>
@@ -43221,7 +43217,7 @@
       </c>
       <c r="AK40" s="41"/>
     </row>
-    <row r="41" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="41" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>98</v>
       </c>
@@ -43233,7 +43229,7 @@
         <v>45</v>
       </c>
       <c r="Q41" s="153" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R41" s="153"/>
       <c r="S41" s="153"/>
@@ -43259,7 +43255,7 @@
       </c>
       <c r="AK41" s="41"/>
     </row>
-    <row r="42" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="42" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>94</v>
       </c>
@@ -43298,7 +43294,7 @@
       </c>
       <c r="AK42" s="41"/>
     </row>
-    <row r="43" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="43" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>93</v>
       </c>
@@ -43332,7 +43328,7 @@
       <c r="AJ43" s="43"/>
       <c r="AK43" s="44"/>
     </row>
-    <row r="44" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="44" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>88</v>
       </c>
@@ -43365,7 +43361,7 @@
       <c r="AG44" s="42"/>
       <c r="AH44" s="44"/>
     </row>
-    <row r="45" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="45" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A45" s="18" t="s">
         <v>87</v>
       </c>
@@ -43391,7 +43387,7 @@
       <c r="AE45" s="43"/>
       <c r="AF45" s="44"/>
     </row>
-    <row r="46" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="46" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>83</v>
       </c>
@@ -43417,7 +43413,7 @@
       <c r="AB46" s="43"/>
       <c r="AC46" s="44"/>
     </row>
-    <row r="47" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="47" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>80</v>
       </c>
@@ -43440,7 +43436,7 @@
       </c>
       <c r="X47" s="44"/>
     </row>
-    <row r="48" spans="1:37" s="17" customFormat="1" ht="14.45" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" s="17" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
       <c r="A48" s="17" t="s">
         <v>78</v>
       </c>
@@ -43449,7 +43445,7 @@
       </c>
       <c r="J48" s="106"/>
     </row>
-    <row r="49" spans="1:35" s="17" customFormat="1" ht="14.45" customHeight="1" thickBot="1">
+    <row r="49" spans="1:35" s="17" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
       <c r="A49" s="17" t="s">
         <v>76</v>
       </c>
@@ -43475,7 +43471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="50" spans="1:35" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>194</v>
       </c>
@@ -43495,7 +43491,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="51" spans="1:35" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>195</v>
       </c>
@@ -43507,7 +43503,7 @@
       </c>
       <c r="U51" s="116"/>
     </row>
-    <row r="52" spans="1:35" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="52" spans="1:35" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A52" s="18" t="s">
         <v>68</v>
       </c>
@@ -43519,7 +43515,7 @@
       </c>
       <c r="U52" s="116"/>
     </row>
-    <row r="53" spans="1:35" s="17" customFormat="1" ht="14.45" customHeight="1">
+    <row r="53" spans="1:35" s="17" customFormat="1" ht="14.4" customHeight="1">
       <c r="A53" s="108" t="s">
         <v>196</v>
       </c>
@@ -43540,7 +43536,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="14.45" customHeight="1">
+    <row r="54" spans="1:35" ht="14.4" customHeight="1">
       <c r="A54" s="21" t="str">
         <f>IF($A$1=$W$3,W53,AE53)</f>
         <v>14. Clean gravel backfill for pool shell</v>
@@ -43575,7 +43571,7 @@
       </c>
       <c r="U54" s="17"/>
     </row>
-    <row r="55" spans="1:35" ht="14.45" customHeight="1">
+    <row r="55" spans="1:35" ht="14.4" customHeight="1">
       <c r="M55" s="30" t="s">
         <v>160</v>
       </c>
@@ -43622,7 +43618,7 @@
       </c>
       <c r="AG55" s="59"/>
     </row>
-    <row r="56" spans="1:35" ht="14.45" customHeight="1">
+    <row r="56" spans="1:35" ht="14.4" customHeight="1">
       <c r="A56" s="107" t="s">
         <v>198</v>
       </c>
@@ -43667,7 +43663,7 @@
       </c>
       <c r="AG56" s="49"/>
     </row>
-    <row r="57" spans="1:35" ht="14.45" customHeight="1">
+    <row r="57" spans="1:35" ht="14.4" customHeight="1">
       <c r="A57" t="s">
         <v>199</v>
       </c>
@@ -43713,7 +43709,7 @@
       </c>
       <c r="AG57" s="62"/>
     </row>
-    <row r="58" spans="1:35" ht="14.45" customHeight="1">
+    <row r="58" spans="1:35" ht="14.4" customHeight="1">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -43734,7 +43730,7 @@
         <v>317</v>
       </c>
       <c r="Q58" s="95" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="R58" s="96"/>
       <c r="S58" s="96"/>
@@ -43758,7 +43754,7 @@
       </c>
       <c r="AG58" s="62"/>
     </row>
-    <row r="59" spans="1:35" ht="14.45" customHeight="1">
+    <row r="59" spans="1:35" ht="14.4" customHeight="1">
       <c r="A59" t="s">
         <v>201</v>
       </c>
@@ -43773,7 +43769,7 @@
         <v>396</v>
       </c>
       <c r="Q59" s="95" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="R59" s="96"/>
       <c r="S59" s="96"/>
@@ -43794,7 +43790,7 @@
       </c>
       <c r="AG59" s="62"/>
     </row>
-    <row r="60" spans="1:35" ht="14.45" customHeight="1">
+    <row r="60" spans="1:35" ht="14.4" customHeight="1">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -43822,7 +43818,7 @@
       </c>
       <c r="AG60" s="62"/>
     </row>
-    <row r="61" spans="1:35" ht="14.45" customHeight="1">
+    <row r="61" spans="1:35" ht="14.4" customHeight="1">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -43851,12 +43847,12 @@
       </c>
       <c r="AG61" s="62"/>
     </row>
-    <row r="62" spans="1:35" ht="14.45" customHeight="1">
+    <row r="62" spans="1:35" ht="14.4" customHeight="1">
       <c r="A62" t="s">
         <v>204</v>
       </c>
       <c r="F62" s="154" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="G62" s="154"/>
       <c r="H62" s="154"/>
@@ -43880,12 +43876,12 @@
       <c r="AF62" s="63"/>
       <c r="AG62" s="64"/>
     </row>
-    <row r="63" spans="1:35" ht="14.45" customHeight="1">
+    <row r="63" spans="1:35" ht="14.4" customHeight="1">
       <c r="A63" t="s">
         <v>55</v>
       </c>
       <c r="F63" s="154" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="G63" s="154"/>
       <c r="H63" s="154"/>
@@ -43902,7 +43898,7 @@
       <c r="T63" s="85"/>
       <c r="U63" s="85"/>
     </row>
-    <row r="64" spans="1:35" ht="14.45" customHeight="1">
+    <row r="64" spans="1:35" ht="14.4" customHeight="1">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -43919,7 +43915,7 @@
       <c r="T64" s="85"/>
       <c r="U64" s="85"/>
     </row>
-    <row r="65" spans="1:35" ht="14.45" customHeight="1">
+    <row r="65" spans="1:35" ht="14.4" customHeight="1">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -43940,7 +43936,7 @@
       <c r="T65" s="150"/>
       <c r="U65" s="151"/>
     </row>
-    <row r="66" spans="1:35" ht="14.45" customHeight="1">
+    <row r="66" spans="1:35" ht="14.4" customHeight="1">
       <c r="A66" s="109" t="s">
         <v>371</v>
       </c>
@@ -43968,7 +43964,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="14.45" customHeight="1" thickBot="1">
+    <row r="67" spans="1:35" ht="14.4" customHeight="1" thickBot="1">
       <c r="F67" s="130" t="str">
         <f>IF(A1=W3,"NORTH CAROLINA Construction Contract - Home Improvement - Fiberglass Swimming Pool","NORTH CAROLINA Construction Contract - Home Improvement - Shotcrete Swimming Pool")</f>
         <v>NORTH CAROLINA Construction Contract - Home Improvement - Fiberglass Swimming Pool</v>
@@ -43992,7 +43988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="14.45" customHeight="1">
+    <row r="68" spans="1:35" ht="14.4" customHeight="1">
       <c r="F68" s="131" t="s">
         <v>163</v>
       </c>
@@ -44023,7 +44019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="14.45" customHeight="1">
+    <row r="69" spans="1:35" ht="14.4" customHeight="1">
       <c r="F69" s="122" t="s">
         <v>166</v>
       </c>
@@ -44054,7 +44050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="14.45" customHeight="1">
+    <row r="70" spans="1:35" ht="14.4" customHeight="1">
       <c r="F70" s="122" t="s">
         <v>168</v>
       </c>
@@ -44080,14 +44076,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="14.45" customHeight="1">
+    <row r="71" spans="1:35" ht="14.4" customHeight="1">
       <c r="F71" s="19"/>
       <c r="U71" s="20"/>
       <c r="W71" s="54">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="14.45" customHeight="1">
+    <row r="72" spans="1:35" ht="14.4" customHeight="1">
       <c r="F72" s="122" t="s">
         <v>164</v>
       </c>
@@ -44118,7 +44114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="14.45" customHeight="1" thickBot="1">
+    <row r="73" spans="1:35" ht="14.4" customHeight="1" thickBot="1">
       <c r="F73" s="5"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -44137,7 +44133,7 @@
       <c r="U73" s="3"/>
       <c r="W73" s="55"/>
     </row>
-    <row r="74" spans="1:35" ht="14.45" customHeight="1">
+    <row r="74" spans="1:35" ht="14.4" customHeight="1">
       <c r="A74" s="105" t="s">
         <v>225</v>
       </c>
@@ -44163,7 +44159,7 @@
       <c r="U74" s="105"/>
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1"/>
-    <row r="76" spans="1:35" ht="14.45" customHeight="1">
+    <row r="76" spans="1:35" ht="14.4" customHeight="1">
       <c r="A76" s="107" t="s">
         <v>213</v>
       </c>
@@ -44189,7 +44185,7 @@
       <c r="T76" s="107"/>
       <c r="U76" s="107"/>
     </row>
-    <row r="77" spans="1:35" ht="14.45" customHeight="1">
+    <row r="77" spans="1:35" ht="14.4" customHeight="1">
       <c r="A77" s="9" t="s">
         <v>67</v>
       </c>
@@ -44207,7 +44203,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="14.45" customHeight="1">
+    <row r="78" spans="1:35" ht="14.4" customHeight="1">
       <c r="A78" s="16" t="s">
         <v>66</v>
       </c>
@@ -44254,7 +44250,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="14.45" customHeight="1">
+    <row r="79" spans="1:35" ht="14.4" customHeight="1">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -44300,7 +44296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="14.45" customHeight="1">
+    <row r="80" spans="1:35" ht="14.4" customHeight="1">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -44340,7 +44336,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="14.45" customHeight="1">
+    <row r="81" spans="1:35" ht="14.4" customHeight="1">
       <c r="A81" s="16" t="s">
         <v>214</v>
       </c>
@@ -44376,12 +44372,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="14.45" customHeight="1">
+    <row r="82" spans="1:35" ht="14.4" customHeight="1">
       <c r="A82" t="s">
         <v>319</v>
       </c>
       <c r="E82" s="154" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="F82" s="154"/>
       <c r="G82" s="154"/>
@@ -44390,7 +44386,7 @@
         <v>48</v>
       </c>
       <c r="J82" s="50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L82" s="16" t="s">
         <v>70</v>
@@ -44418,7 +44414,7 @@
       <c r="AF82" s="62"/>
       <c r="AI82" s="55"/>
     </row>
-    <row r="83" spans="1:35" ht="14.45" customHeight="1">
+    <row r="83" spans="1:35" ht="14.4" customHeight="1">
       <c r="A83" t="s">
         <v>320</v>
       </c>
@@ -44452,7 +44448,7 @@
       <c r="AE83" s="63"/>
       <c r="AF83" s="64"/>
     </row>
-    <row r="84" spans="1:35" ht="14.45" customHeight="1">
+    <row r="84" spans="1:35" ht="14.4" customHeight="1">
       <c r="A84" t="s">
         <v>321</v>
       </c>
@@ -44484,12 +44480,12 @@
       </c>
       <c r="AD84" s="62"/>
     </row>
-    <row r="85" spans="1:35" ht="14.45" customHeight="1">
+    <row r="85" spans="1:35" ht="14.4" customHeight="1">
       <c r="A85" t="s">
         <v>322</v>
       </c>
       <c r="I85" s="96" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="J85" s="96"/>
       <c r="L85" t="s">
@@ -44514,7 +44510,7 @@
       <c r="AC85" s="63"/>
       <c r="AD85" s="64"/>
     </row>
-    <row r="86" spans="1:35" ht="14.45" customHeight="1">
+    <row r="86" spans="1:35" ht="14.4" customHeight="1">
       <c r="L86" s="16"/>
       <c r="W86" s="61" t="s">
         <v>109</v>
@@ -44525,7 +44521,7 @@
       </c>
       <c r="AB86" s="62"/>
     </row>
-    <row r="87" spans="1:35" ht="14.45" customHeight="1">
+    <row r="87" spans="1:35" ht="14.4" customHeight="1">
       <c r="A87" s="107" t="s">
         <v>54</v>
       </c>
@@ -44559,7 +44555,7 @@
       <c r="AA87" s="65"/>
       <c r="AB87" s="64"/>
     </row>
-    <row r="88" spans="1:35" ht="14.45" customHeight="1">
+    <row r="88" spans="1:35" ht="14.4" customHeight="1">
       <c r="A88" t="s">
         <v>323</v>
       </c>
@@ -44576,7 +44572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="14.45" customHeight="1">
+    <row r="89" spans="1:35" ht="14.4" customHeight="1">
       <c r="A89" t="s">
         <v>324</v>
       </c>
@@ -44627,7 +44623,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="14.45" customHeight="1">
+    <row r="90" spans="1:35" ht="14.4" customHeight="1">
       <c r="A90" t="s">
         <v>325</v>
       </c>
@@ -44664,7 +44660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="14.45" customHeight="1">
+    <row r="91" spans="1:35" ht="14.4" customHeight="1">
       <c r="A91" t="s">
         <v>326</v>
       </c>
@@ -44713,7 +44709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="14.45" customHeight="1">
+    <row r="92" spans="1:35" ht="14.4" customHeight="1">
       <c r="A92" t="s">
         <v>327</v>
       </c>
@@ -44748,7 +44744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="14.45" customHeight="1">
+    <row r="93" spans="1:35" ht="14.4" customHeight="1">
       <c r="A93" t="s">
         <v>328</v>
       </c>
@@ -44797,7 +44793,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="14.45" customHeight="1">
+    <row r="94" spans="1:35" ht="14.4" customHeight="1">
       <c r="W94" s="61" t="s">
         <v>289</v>
       </c>
@@ -44812,7 +44808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="14.45" customHeight="1">
+    <row r="95" spans="1:35" ht="14.4" customHeight="1">
       <c r="A95" s="107" t="s">
         <v>46</v>
       </c>
@@ -44845,7 +44841,7 @@
       <c r="Y95" s="62"/>
       <c r="AF95" s="55"/>
     </row>
-    <row r="96" spans="1:35" ht="14.45" customHeight="1">
+    <row r="96" spans="1:35" ht="14.4" customHeight="1">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -44866,7 +44862,7 @@
       </c>
       <c r="Y96" s="62"/>
     </row>
-    <row r="97" spans="1:25" ht="14.45" customHeight="1">
+    <row r="97" spans="1:25" ht="14.4" customHeight="1">
       <c r="A97" t="s">
         <v>330</v>
       </c>
@@ -44901,7 +44897,7 @@
       </c>
       <c r="Y97" s="62"/>
     </row>
-    <row r="98" spans="1:25" ht="14.45" customHeight="1">
+    <row r="98" spans="1:25" ht="14.4" customHeight="1">
       <c r="A98" t="s">
         <v>331</v>
       </c>
@@ -44922,7 +44918,7 @@
       </c>
       <c r="Y98" s="62"/>
     </row>
-    <row r="99" spans="1:25" ht="14.45" customHeight="1">
+    <row r="99" spans="1:25" ht="14.4" customHeight="1">
       <c r="A99" t="s">
         <v>332</v>
       </c>
@@ -44957,13 +44953,13 @@
       </c>
       <c r="Y99" s="62"/>
     </row>
-    <row r="100" spans="1:25" ht="14.45" customHeight="1">
+    <row r="100" spans="1:25" ht="14.4" customHeight="1">
       <c r="W100" s="61" t="s">
         <v>51</v>
       </c>
       <c r="Y100" s="62"/>
     </row>
-    <row r="101" spans="1:25" ht="14.45" customHeight="1">
+    <row r="101" spans="1:25" ht="14.4" customHeight="1">
       <c r="A101" s="107" t="s">
         <v>216</v>
       </c>
@@ -44994,12 +44990,12 @@
       <c r="X101" s="65"/>
       <c r="Y101" s="64"/>
     </row>
-    <row r="102" spans="1:25" ht="14.45" customHeight="1">
+    <row r="102" spans="1:25" ht="14.4" customHeight="1">
       <c r="A102" t="s">
         <v>333</v>
       </c>
       <c r="F102" s="95" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="G102" s="96"/>
       <c r="H102" s="96"/>
@@ -45009,7 +45005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="14.45" customHeight="1">
+    <row r="103" spans="1:25" ht="14.4" customHeight="1">
       <c r="A103" t="s">
         <v>334</v>
       </c>
@@ -45035,7 +45031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="14.45" customHeight="1">
+    <row r="104" spans="1:25" ht="14.4" customHeight="1">
       <c r="A104" t="s">
         <v>335</v>
       </c>
@@ -45047,7 +45043,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="14.45" customHeight="1">
+    <row r="105" spans="1:25" ht="14.4" customHeight="1">
       <c r="A105" t="s">
         <v>336</v>
       </c>
@@ -45073,7 +45069,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="14.45" customHeight="1">
+    <row r="106" spans="1:25" ht="14.4" customHeight="1">
       <c r="A106" t="s">
         <v>337</v>
       </c>
@@ -45082,7 +45078,7 @@
       </c>
       <c r="J106" s="124"/>
     </row>
-    <row r="107" spans="1:25" ht="14.45" customHeight="1">
+    <row r="107" spans="1:25" ht="14.4" customHeight="1">
       <c r="A107" t="s">
         <v>82</v>
       </c>
@@ -45105,7 +45101,7 @@
       <c r="T107" s="157"/>
       <c r="U107" s="157"/>
     </row>
-    <row r="108" spans="1:25" ht="14.45" customHeight="1">
+    <row r="108" spans="1:25" ht="14.4" customHeight="1">
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="L108" s="16"/>
@@ -45119,7 +45115,7 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
     </row>
-    <row r="109" spans="1:25" ht="29.45" customHeight="1">
+    <row r="109" spans="1:25" ht="29.4" customHeight="1">
       <c r="A109" s="80" t="s">
         <v>226</v>
       </c>
@@ -45148,7 +45144,7 @@
       <c r="T109" s="162"/>
       <c r="U109" s="163"/>
     </row>
-    <row r="110" spans="1:25" ht="14.45" customHeight="1">
+    <row r="110" spans="1:25" ht="14.4" customHeight="1">
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="L110" s="16"/>
@@ -45162,7 +45158,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
     </row>
-    <row r="111" spans="1:25" ht="29.45" customHeight="1">
+    <row r="111" spans="1:25" ht="29.4" customHeight="1">
       <c r="A111" s="80" t="s">
         <v>227</v>
       </c>
@@ -45191,7 +45187,7 @@
       <c r="T111" s="159"/>
       <c r="U111" s="160"/>
     </row>
-    <row r="112" spans="1:25" ht="14.45" customHeight="1">
+    <row r="112" spans="1:25" ht="14.4" customHeight="1">
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="L112" s="16"/>
@@ -45205,7 +45201,7 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
     </row>
-    <row r="113" spans="1:21" ht="29.45" customHeight="1">
+    <row r="113" spans="1:21" ht="29.4" customHeight="1">
       <c r="A113" s="80" t="s">
         <v>227</v>
       </c>
@@ -45234,7 +45230,7 @@
       <c r="T113" s="159"/>
       <c r="U113" s="160"/>
     </row>
-    <row r="114" spans="1:21" ht="140.44999999999999" customHeight="1">
+    <row r="114" spans="1:21" ht="140.4" customHeight="1">
       <c r="A114" s="85" t="s">
         <v>399</v>
       </c>
@@ -45259,7 +45255,7 @@
       <c r="T114" s="85"/>
       <c r="U114" s="85"/>
     </row>
-    <row r="115" spans="1:21" ht="14.45" customHeight="1">
+    <row r="115" spans="1:21" ht="14.4" customHeight="1">
       <c r="A115" s="35"/>
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
@@ -45282,7 +45278,7 @@
       <c r="T115" s="35"/>
       <c r="U115" s="35"/>
     </row>
-    <row r="116" spans="1:21" ht="33.950000000000003" customHeight="1">
+    <row r="116" spans="1:21" ht="33.9" customHeight="1">
       <c r="A116" s="166" t="s">
         <v>220</v>
       </c>
@@ -45307,7 +45303,7 @@
       <c r="T116" s="166"/>
       <c r="U116" s="166"/>
     </row>
-    <row r="117" spans="1:21" ht="33.950000000000003" customHeight="1">
+    <row r="117" spans="1:21" ht="33.9" customHeight="1">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -45330,7 +45326,7 @@
       <c r="T117" s="36"/>
       <c r="U117" s="36"/>
     </row>
-    <row r="118" spans="1:21" ht="14.45" customHeight="1">
+    <row r="118" spans="1:21" ht="14.4" customHeight="1">
       <c r="A118" s="109" t="s">
         <v>370</v>
       </c>
@@ -45383,7 +45379,7 @@
       <c r="T119" s="83"/>
       <c r="U119" s="84"/>
     </row>
-    <row r="120" spans="1:21" ht="9.9499999999999993" customHeight="1">
+    <row r="120" spans="1:21" ht="9.9" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -45531,7 +45527,7 @@
       <c r="T125" s="144"/>
       <c r="U125" s="144"/>
     </row>
-    <row r="126" spans="1:21" ht="48.95" customHeight="1">
+    <row r="126" spans="1:21" ht="48.9" customHeight="1">
       <c r="A126" s="144" t="s">
         <v>115</v>
       </c>
@@ -45606,7 +45602,7 @@
       <c r="T128" s="144"/>
       <c r="U128" s="144"/>
     </row>
-    <row r="129" spans="1:21" ht="9.9499999999999993" customHeight="1">
+    <row r="129" spans="1:21" ht="9.9" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -45654,7 +45650,7 @@
       <c r="T130" s="143"/>
       <c r="U130" s="143"/>
     </row>
-    <row r="131" spans="1:21" ht="86.45" customHeight="1">
+    <row r="131" spans="1:21" ht="86.4" customHeight="1">
       <c r="A131" s="144" t="s">
         <v>116</v>
       </c>
@@ -45704,7 +45700,7 @@
       <c r="T132" s="144"/>
       <c r="U132" s="144"/>
     </row>
-    <row r="133" spans="1:21" ht="9.9499999999999993" customHeight="1">
+    <row r="133" spans="1:21" ht="9.9" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -45752,7 +45748,7 @@
       <c r="T134" s="143"/>
       <c r="U134" s="143"/>
     </row>
-    <row r="135" spans="1:21" ht="77.45" customHeight="1">
+    <row r="135" spans="1:21" ht="77.400000000000006" customHeight="1">
       <c r="A135" s="144" t="s">
         <v>117</v>
       </c>
@@ -45777,7 +45773,7 @@
       <c r="T135" s="144"/>
       <c r="U135" s="144"/>
     </row>
-    <row r="136" spans="1:21" ht="41.45" customHeight="1">
+    <row r="136" spans="1:21" ht="41.4" customHeight="1">
       <c r="A136" s="144" t="s">
         <v>118</v>
       </c>
@@ -45877,7 +45873,7 @@
       <c r="T139" s="144"/>
       <c r="U139" s="144"/>
     </row>
-    <row r="140" spans="1:21" ht="9.9499999999999993" customHeight="1">
+    <row r="140" spans="1:21" ht="9.9" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -46055,7 +46051,7 @@
       <c r="T146" s="83"/>
       <c r="U146" s="84"/>
     </row>
-    <row r="147" spans="1:21" ht="9.9499999999999993" customHeight="1">
+    <row r="147" spans="1:21" ht="9.9" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -46178,7 +46174,7 @@
       <c r="T151" s="144"/>
       <c r="U151" s="144"/>
     </row>
-    <row r="152" spans="1:21" ht="27.95" customHeight="1">
+    <row r="152" spans="1:21" ht="27.9" customHeight="1">
       <c r="A152" s="144" t="s">
         <v>124</v>
       </c>
@@ -46203,7 +46199,7 @@
       <c r="T152" s="144"/>
       <c r="U152" s="144"/>
     </row>
-    <row r="153" spans="1:21" ht="32.450000000000003" customHeight="1">
+    <row r="153" spans="1:21" ht="32.4" customHeight="1">
       <c r="A153" s="144" t="s">
         <v>15</v>
       </c>
@@ -46228,7 +46224,7 @@
       <c r="T153" s="144"/>
       <c r="U153" s="144"/>
     </row>
-    <row r="154" spans="1:21" ht="78.95" customHeight="1">
+    <row r="154" spans="1:21" ht="78.900000000000006" customHeight="1">
       <c r="A154" s="144" t="s">
         <v>125</v>
       </c>
@@ -46374,7 +46370,7 @@
       <c r="T159" s="143"/>
       <c r="U159" s="143"/>
     </row>
-    <row r="160" spans="1:21" ht="30.95" customHeight="1">
+    <row r="160" spans="1:21" ht="30.9" customHeight="1">
       <c r="A160" s="144" t="s">
         <v>127</v>
       </c>
@@ -46915,7 +46911,7 @@
       <c r="U181" s="84"/>
     </row>
     <row r="182" spans="1:21" ht="6" customHeight="1"/>
-    <row r="183" spans="1:21" ht="51.95" customHeight="1">
+    <row r="183" spans="1:21" ht="51.9" customHeight="1">
       <c r="A183" s="85" t="s">
         <v>231</v>
       </c>
@@ -46974,7 +46970,7 @@
       <c r="T186" s="78"/>
       <c r="U186" s="78"/>
     </row>
-    <row r="187" spans="1:21" ht="26.45" customHeight="1">
+    <row r="187" spans="1:21" ht="26.4" customHeight="1">
       <c r="C187" s="87" t="s">
         <v>135</v>
       </c>
@@ -47162,7 +47158,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="29.45" customHeight="1">
+    <row r="200" spans="1:21" ht="29.4" customHeight="1">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="87" t="s">
@@ -47230,7 +47226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="38.450000000000003" customHeight="1">
+    <row r="206" spans="1:21" ht="38.4" customHeight="1">
       <c r="C206" s="87" t="s">
         <v>143</v>
       </c>
@@ -47280,7 +47276,7 @@
       <c r="V211" s="6"/>
       <c r="W211" s="6"/>
     </row>
-    <row r="212" spans="1:23" ht="29.45" customHeight="1">
+    <row r="212" spans="1:23" ht="29.4" customHeight="1">
       <c r="C212" s="87" t="s">
         <v>145</v>
       </c>
@@ -47531,7 +47527,7 @@
       <c r="T234" s="10"/>
       <c r="U234" s="9"/>
     </row>
-    <row r="235" spans="1:21" ht="41.45" customHeight="1">
+    <row r="235" spans="1:21" ht="41.4" customHeight="1">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="152" t="s">
@@ -47774,8 +47770,8 @@
       <c r="T244" s="83"/>
       <c r="U244" s="84"/>
     </row>
-    <row r="245" spans="1:26" ht="5.45" customHeight="1"/>
-    <row r="246" spans="1:26" ht="51.95" customHeight="1">
+    <row r="245" spans="1:26" ht="5.4" customHeight="1"/>
+    <row r="246" spans="1:26" ht="51.9" customHeight="1">
       <c r="A246" s="85" t="s">
         <v>231</v>
       </c>
@@ -47800,7 +47796,7 @@
       <c r="T246" s="85"/>
       <c r="U246" s="85"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75">
+    <row r="248" spans="1:26" ht="15.6">
       <c r="A248" s="86" t="s">
         <v>6</v>
       </c>
@@ -47843,7 +47839,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="39.950000000000003" customHeight="1">
+    <row r="250" spans="1:26" ht="39.9" customHeight="1">
       <c r="C250" s="87" t="str">
         <f>IF(W249="FIBERGLASS","",Z250)</f>
         <v>Failure to maintain these levels willvoid any warranty on your interior finish.  Premier Pools &amp; Spas recommends having your pool water professionally tested at least once a month to protect your finish and your warranty.  Please keep a record of these professional tests as documentation of the testing.</v>
@@ -47876,7 +47872,7 @@
       <c r="C251" s="7"/>
       <c r="Z251" s="7"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75">
+    <row r="252" spans="1:26" ht="15.6">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="1" t="str">
@@ -47884,7 +47880,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15">
+    <row r="253" spans="1:26" ht="13.8">
       <c r="A253" s="74"/>
       <c r="B253" s="75"/>
       <c r="C253" s="79" t="str">
@@ -47921,7 +47917,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="12.95" customHeight="1">
+    <row r="255" spans="1:26" ht="12.9" customHeight="1">
       <c r="A255" s="74"/>
       <c r="B255" s="75"/>
       <c r="C255" s="79" t="str">
@@ -48154,7 +48150,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="15.75">
+    <row r="265" spans="1:26" ht="15.6">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="1" t="str">
@@ -48162,7 +48158,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="15">
+    <row r="266" spans="1:26" ht="13.8">
       <c r="A266" s="74"/>
       <c r="B266" s="75"/>
       <c r="C266" s="78" t="str">
@@ -49058,7 +49054,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="3" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="74" fitToHeight="3" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="66" max="16383" man="1"/>
     <brk id="118" max="20" man="1"/>
